--- a/TNR_PREJDD/RO/PREJDD.RO.HAB.xlsx
+++ b/TNR_PREJDD/RO/PREJDD.RO.HAB.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mg7op8ws/q6bzUMax1O2uPB8BpsOA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgrNVcmhRiktoARYTU9WpYkw0+GYQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -73,7 +73,7 @@
     <t>RO.ACT.003HAB.SRA.01</t>
   </si>
   <si>
-    <t>RO.ACT.003HAB.SRA.01.1</t>
+    <t>HAB.RO.ACT.003HAB.SRA.01.1</t>
   </si>
   <si>
     <t>$VIDE</t>
@@ -88,28 +88,31 @@
     <t>$DATETIMESYS</t>
   </si>
   <si>
-    <t>RO.ACT.003HAB.SRA.01.2</t>
+    <t>HAB.RO.ACT.003HAB.SRA.01.2</t>
   </si>
   <si>
     <t>RO.ACT.003HAB.SRM.01</t>
   </si>
   <si>
-    <t>RO.ACT.003HAB.SRM.01.1</t>
+    <t>HAB.RO.ACT.003HAB.SRM.01.1</t>
   </si>
   <si>
-    <t>RO.ACT.003HAB.SRM.01.2</t>
+    <t>HAB.RO.ACT.003HAB.SRM.01.2</t>
   </si>
   <si>
     <t>RO.ACT.003HAB.SRS.01</t>
   </si>
   <si>
-    <t>RO.ACT.003HAB.SRS.01.1</t>
+    <t>HAB.RO.ACT.003HAB.SRS.01.1</t>
   </si>
   <si>
-    <t>RO.ACT.003HAB.SRS.01.2</t>
+    <t>HAB.RO.ACT.003HAB.SRS.01.2</t>
   </si>
   <si>
     <t>RO.ACT.003HAB.SRL.01</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRL.01</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1624,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.75"/>
-    <col customWidth="1" min="2" max="3" width="22.13"/>
+    <col customWidth="1" min="2" max="2" width="22.13"/>
+    <col customWidth="1" min="3" max="3" width="29.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1832,10 +1836,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>19</v>
